--- a/bioprojects/maternal_carpenterbees_PRJNA437497/SraRunTable.xlsx
+++ b/bioprojects/maternal_carpenterbees_PRJNA437497/SraRunTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/lab_files/projects/seesaw_test/by_project/maternal_honeybees_PRJNA437497/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/invert_meth_and_transcription/bioprojects/maternal_carpenterbees_PRJNA437497/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A436A7-3493-C549-BB99-DCF59A8BDC80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130E85FA-3B9E-7140-A189-052952CE2E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="7260" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="3900" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maternal_honeybees_PRJNA437497_" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="139">
   <si>
     <t>Assay_Type</t>
   </si>
@@ -399,15 +399,6 @@
     <t>SRR6819918_1</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
@@ -418,13 +409,43 @@
   </si>
   <si>
     <t>treated</t>
+  </si>
+  <si>
+    <t>treatInfo</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,6 +579,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -901,9 +928,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2361,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2374,81 +2402,102 @@
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2510,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,13 +2520,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2485,10 +2534,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2496,10 +2545,10 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2507,10 +2556,10 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2518,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2529,10 +2578,10 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2540,10 +2589,10 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/bioprojects/maternal_carpenterbees_PRJNA437497/SraRunTable.xlsx
+++ b/bioprojects/maternal_carpenterbees_PRJNA437497/SraRunTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/invert_meth_and_transcription/bioprojects/maternal_carpenterbees_PRJNA437497/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130E85FA-3B9E-7140-A189-052952CE2E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18825B98-ED90-E94F-928F-205A1CB1ECBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="3900" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maternal_honeybees_PRJNA437497_" sheetId="1" r:id="rId1"/>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,6 +1300,7 @@
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2509,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C52D99-08AB-AC4F-AD12-0BCFFE7FC11D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
